--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -383,7 +383,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.650625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="14.660625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -383,7 +383,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.310625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="13.155425" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -383,7 +383,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.155425" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="16.040625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -383,7 +383,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.040625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="16.740625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -383,7 +383,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.740625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="15.739551" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -383,7 +383,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.650625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="14.670625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Dates</x:t>
   </x:si>
@@ -27,7 +27,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="d MMMM yyyy"/>
+    <x:numFmt numFmtId="164" formatCode="d MMMM yyyy"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -69,7 +69,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -78,7 +78,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -383,7 +383,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.670625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="14.139196" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Single Column Dates" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Single Column Dates" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Single Column Dates'!$A$1:$A$7</x:definedName>
